--- a/static/sample_parties_upload.xlsx
+++ b/static/sample_parties_upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vvmagro\VVMAgro\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C08823A2-148A-4E41-AC35-F7EF87B5EBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C12EC77-5F2F-447B-8184-3DAF2D6066B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>group</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>registration_type</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,9 +437,10 @@
     <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" customWidth="1"/>
     <col min="9" max="9" width="25.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,6 +467,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
